--- a/Shoping/Book1.xlsx
+++ b/Shoping/Book1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Shoping\Shoping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\WPF_Shoping\Shoping\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Paid</t>
   </si>
   <si>
     <t>Check</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Vouchers</t>
   </si>
 </sst>
 </file>
@@ -349,7 +365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +406,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Shoping/Book1.xlsx
+++ b/Shoping/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Paid</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Vouchers</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\Desktop\bmw.jpg</t>
   </si>
 </sst>
 </file>
@@ -363,34 +369,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>456</v>
       </c>
@@ -398,7 +411,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>123</v>
       </c>
@@ -412,13 +425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
